--- a/Bloque III/ProyectoPony/Resultados/Experiencia 1/dp_tunnedAHP.xlsx
+++ b/Bloque III/ProyectoPony/Resultados/Experiencia 1/dp_tunnedAHP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/joscanege_alum_us_es/Documents/TFG/TFG_GITT_Joscanege/Bloque III/ProyectoPony/Resultados/Experiencia 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1539" documentId="13_ncr:1_{7BF2AEEA-675E-4CE0-9215-137092C8576A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD8B60E9-DD49-4590-AB7F-4CA8037253BE}"/>
+  <xr:revisionPtr revIDLastSave="1553" documentId="13_ncr:1_{7BF2AEEA-675E-4CE0-9215-137092C8576A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{862509C7-2D69-4D9D-85A7-6821F46C591B}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="6075" windowWidth="19440" windowHeight="15000" firstSheet="3" activeTab="5" xr2:uid="{3CAB450C-71BC-4FE8-B13A-D8A4907B4A86}"/>
+    <workbookView xWindow="-19320" yWindow="6075" windowWidth="19440" windowHeight="15000" firstSheet="3" activeTab="6" xr2:uid="{3CAB450C-71BC-4FE8-B13A-D8A4907B4A86}"/>
   </bookViews>
   <sheets>
     <sheet name="Informe Previo" sheetId="1" r:id="rId1"/>
@@ -4740,6 +4740,31 @@
           <c:val>
             <c:numRef>
               <c:f>Cálculos!$E$202:$E$208</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.660714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7516534391534395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8607804232804233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -5040,6 +5065,22 @@
           <c:val>
             <c:numRef>
               <c:f>Cálculos!$E$209:$E$212</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.6830357142857144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6094576719576721</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1369047619047619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.191964285714286</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -5349,6 +5390,31 @@
           <c:val>
             <c:numRef>
               <c:f>Cálculos!$E$213:$E$219</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.2129629629629628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6160714285714284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6160714285714284</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4821428571428568</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1071428571428568</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -5646,236 +5712,292 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Cálculos!$B$112:$B$154</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Cálculos!$B$116:$B$131,Cálculos!$B$133:$B$147,Cálculos!$B$149,Cálculos!$B$151)</c:f>
-              <c:strCache>
-                <c:ptCount val="33"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Cálculos!$C$112:$C$154</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>Q5</c:v>
+                  <c:v>22.142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q9</c:v>
+                  <c:v>4.0357142857142856</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q10</c:v>
+                  <c:v>3.8214285714285716</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q11</c:v>
+                  <c:v>3.9285714285714284</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q12</c:v>
+                  <c:v>4.0740740740740744</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q13</c:v>
+                  <c:v>4.2142857142857144</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q14</c:v>
+                  <c:v>3.9629629629629628</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q15</c:v>
+                  <c:v>4.3703703703703702</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Q16</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Q17</c:v>
+                  <c:v>4.1428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Q18</c:v>
+                  <c:v>4.0714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Q19</c:v>
+                  <c:v>3.7037037037037037</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Q20</c:v>
+                  <c:v>4.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Q22</c:v>
+                  <c:v>4.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Q23</c:v>
+                  <c:v>3.4642857142857144</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Q24</c:v>
+                  <c:v>3.6428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Q25</c:v>
+                  <c:v>3.8928571428571428</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Q26</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Q27</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Q28</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Q29</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Q30</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Q31</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Q32</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Q33</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Q34</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Q35</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Q36</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Q38</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Q40</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Cálculos!$C$112:$C$154</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Cálculos!$C$116:$C$131,Cálculos!$C$133:$C$147,Cálculos!$C$149,Cálculos!$C$151)</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>4.0357142857142856</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8214285714285716</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9285714285714284</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0740740740740744</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2142857142857144</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.9629629629629628</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.3703703703703702</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.1428571428571432</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0714285714285712</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.7037037037037037</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.2857142857142856</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.4642857142857144</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.6428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.8928571428571428</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.1071428571428568</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.8214285714285716</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.3214285714285712</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.9285714285714284</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.0714285714285712</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4.1071428571428568</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>3.8214285714285716</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3214285714285712</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>4.0714285714285712</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
+                  <c:v>4.1071428571428568</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.0714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>3.6428571428571428</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>2.9285714285714284</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>3.3214285714285716</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>4.1851851851851851</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>4.1428571428571432</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>3.4642857142857144</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
                   <c:v>3.8928571428571428</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>3.7857142857142856</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>4.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.1538461538461533</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Cálculos!$B$112:$B$154</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="43"/>
+                      <c:pt idx="0">
+                        <c:v>Q1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Q2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Q3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Q4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Q5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Q6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Q7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Q8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Q9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Q10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Q11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Q12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Q13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Q14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Q15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Q16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>Q17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>Q18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>Q19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>Q20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>Q21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>Q22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>Q23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>Q24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>Q25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>Q26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>Q27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>Q28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>Q29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>Q30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>Q31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>Q32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>Q33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>Q34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>Q35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>Q36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>Q37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>Q38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>Q39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>Q40</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>Q41</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>Q42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>Q43</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-98DA-4A30-A588-6D2AE43891CD}"/>
             </c:ext>
@@ -5905,236 +6027,292 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Cálculos!$B$112:$B$154</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Cálculos!$B$116:$B$131,Cálculos!$B$133:$B$147,Cálculos!$B$149,Cálculos!$B$151)</c:f>
-              <c:strCache>
-                <c:ptCount val="33"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Cálculos!$D$112:$D$154</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>Q5</c:v>
+                  <c:v>3.6084656084656075</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q9</c:v>
+                  <c:v>0.70238095238095266</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q10</c:v>
+                  <c:v>1.1150793650793642</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q11</c:v>
+                  <c:v>0.95767195767195679</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q12</c:v>
+                  <c:v>0.84045584045584032</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q13</c:v>
+                  <c:v>0.98941798941798975</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q14</c:v>
+                  <c:v>0.88319088319088423</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q15</c:v>
+                  <c:v>0.70370370370370405</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Q16</c:v>
+                  <c:v>0.93518518518518523</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Q17</c:v>
+                  <c:v>1.3121693121693128</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Q18</c:v>
+                  <c:v>0.88359788359788272</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Q19</c:v>
+                  <c:v>0.98575498575498532</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Q20</c:v>
+                  <c:v>0.65608465608465427</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Q22</c:v>
+                  <c:v>0.38461538461538464</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Q23</c:v>
+                  <c:v>1.072751322751323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Q24</c:v>
+                  <c:v>0.97883597883597939</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Q25</c:v>
+                  <c:v>0.54365079365079427</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Q26</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Q27</c:v>
+                  <c:v>0.61772486772486834</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Q28</c:v>
+                  <c:v>0.89285714285714191</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Q29</c:v>
+                  <c:v>0.52248677248677367</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Q30</c:v>
+                  <c:v>1.6984126984126975</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Q31</c:v>
+                  <c:v>0.73544973544973458</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Q32</c:v>
+                  <c:v>0.69179894179894241</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Q33</c:v>
+                  <c:v>0.58730158730158644</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Q34</c:v>
+                  <c:v>0.7407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>Q35</c:v>
+                  <c:v>0.83068783068783125</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Q36</c:v>
+                  <c:v>1.7724867724867726</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Q38</c:v>
+                  <c:v>1.3373015873015863</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Q40</c:v>
+                  <c:v>0.6951566951566952</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Cálculos!$D$112:$D$154</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Cálculos!$D$116:$D$131,Cálculos!$D$133:$D$147,Cálculos!$D$149,Cálculos!$D$151)</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>0.70238095238095266</c:v>
+                <c:pt idx="33">
+                  <c:v>0.94179894179894241</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1150793650793642</c:v>
+                <c:pt idx="34">
+                  <c:v>1.6653439153439156</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95767195767195679</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.84045584045584032</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.98941798941798975</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.88319088319088423</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.70370370370370405</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.93518518518518523</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3121693121693128</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.88359788359788272</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.98575498575498532</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.65608465608465427</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.38461538461538464</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.072751322751323</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.97883597883597939</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.54365079365079427</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="35">
                   <c:v>0.61772486772486834</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.89285714285714191</c:v>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.52248677248677367</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.6984126984126975</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.73544973544973458</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.69179894179894241</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.58730158730158644</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.7407407407407407</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.83068783068783125</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.7724867724867726</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.3373015873015863</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.6951566951566952</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.94179894179894241</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.6653439153439156</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.61772486772486834</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="37">
                   <c:v>0.69312169312169347</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>0.43386243386243206</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4153846153846188</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Cálculos!$B$112:$B$154</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="43"/>
+                      <c:pt idx="0">
+                        <c:v>Q1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Q2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Q3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Q4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Q5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Q6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Q7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Q8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Q9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Q10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Q11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Q12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Q13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Q14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Q15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Q16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>Q17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>Q18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>Q19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>Q20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>Q21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>Q22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>Q23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>Q24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>Q25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>Q26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>Q27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>Q28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>Q29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>Q30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>Q31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>Q32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>Q33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>Q34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>Q35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>Q36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>Q37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>Q38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>Q39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>Q40</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>Q41</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>Q42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>Q43</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-98DA-4A30-A588-6D2AE43891CD}"/>
             </c:ext>
@@ -6436,69 +6614,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Cálculos!$B$159:$C$173</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Cálculos!$B$159:$B$173</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Cálculos!$B$159:$B$173</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>Utilidad percibida (emisor)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Facilidad de uso percibida (emisor)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Probabilidad de reutilización</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Control del emisor</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Adecuación del medio de aplicación</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Comportamiento en el recinto</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruido en el recinto</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Integración percibida</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Socialización percibida</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Preferencia personal (emisor)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Cambios en los partes</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Valoración global</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Valoración global de comportamiento</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Valoración global académica</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Valoración global motivacional</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Cálculos!$D$159:$D$173</c:f>
@@ -6554,6 +6669,118 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Cálculos!$B$159:$C$173</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="15"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Q1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Q2</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Q3</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Q4</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Q5</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Q6</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Q7</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>Q8</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>Q9</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>Q10</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>Q11</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>Q12</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>Q13</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>Q14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>Q15</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Utilidad percibida (emisor)</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Facilidad de uso percibida (emisor)</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Probabilidad de reutilización</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Control del emisor</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Adecuación del medio de aplicación</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Comportamiento en el recinto</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Ruido en el recinto</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>Integración percibida</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>Socialización percibida</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>Preferencia personal (emisor)</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>Cambios en los partes</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>Valoración global</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>Valoración global de comportamiento</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>Valoración global académica</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>Valoración global motivacional</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5BDA-42AA-9570-0D654DF48677}"/>
             </c:ext>
@@ -6572,76 +6799,174 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Cálculos!$B$159:$C$173</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Cálculos!$B$159:$B$173</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Cálculos!$B$159:$B$173</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>Utilidad percibida (emisor)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Facilidad de uso percibida (emisor)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Probabilidad de reutilización</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Control del emisor</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Adecuación del medio de aplicación</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Comportamiento en el recinto</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruido en el recinto</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Integración percibida</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Socialización percibida</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Preferencia personal (emisor)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Cambios en los partes</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Valoración global</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Valoración global de comportamiento</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Valoración global académica</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Valoración global motivacional</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Cálculos!$E$159:$E$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Cálculos!$B$159:$C$173</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="15"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Q1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Q2</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Q3</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Q4</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Q5</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Q6</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Q7</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>Q8</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>Q9</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>Q10</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>Q11</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>Q12</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>Q13</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>Q14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>Q15</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Utilidad percibida (emisor)</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Facilidad de uso percibida (emisor)</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Probabilidad de reutilización</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Control del emisor</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Adecuación del medio de aplicación</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Comportamiento en el recinto</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Ruido en el recinto</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>Integración percibida</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>Socialización percibida</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>Preferencia personal (emisor)</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>Cambios en los partes</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>Valoración global</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>Valoración global de comportamiento</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>Valoración global académica</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>Valoración global motivacional</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5BDA-42AA-9570-0D654DF48677}"/>
             </c:ext>
@@ -7644,6 +7969,25 @@
           <c:val>
             <c:numRef>
               <c:f>Cálculos!$E$179:$E$183</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -7930,6 +8274,16 @@
           <c:val>
             <c:numRef>
               <c:f>Cálculos!$E$184:$E$185</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.453608247422681</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9285714285714293</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -8248,6 +8602,37 @@
           <c:val>
             <c:numRef>
               <c:f>Cálculos!$E$186:$E$194</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.7053571428571432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1517857142857135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8616071428571419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3035714285714284</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.65625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9550264550264558</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0803571428571432</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -8551,6 +8936,25 @@
           <c:val>
             <c:numRef>
               <c:f>Cálculos!$E$195:$E$199</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -15274,7 +15678,7 @@
       <xdr:rowOff>64477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>935648</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>18678</xdr:rowOff>
@@ -21571,7 +21975,7 @@
       <xdr:rowOff>93052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>932999</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -35826,8 +36230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74037A00-03DB-435A-8270-394BB5D409E9}">
   <dimension ref="A2:W367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178:G220"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="J144" sqref="J144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35836,7 +36240,7 @@
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" hidden="1" customWidth="1"/>
@@ -38372,7 +38776,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="207" t="s">
         <v>521</v>
       </c>
@@ -44728,7 +45132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B55847A-8B51-4EA0-B2F1-2F7149944867}">
   <dimension ref="A1:U874"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A126" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A351" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G356" sqref="G356"/>
     </sheetView>
   </sheetViews>
@@ -44760,7 +45164,7 @@
       </c>
       <c r="H1" s="98">
         <f ca="1">TODAY()</f>
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="K1" s="95"/>
       <c r="L1" s="95"/>
